--- a/results/model_performance_cv.xlsx
+++ b/results/model_performance_cv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Dataset</t>
   </si>
@@ -85,43 +85,73 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>{'max_depth': 5, 'min_samples_split': 2}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.1, 'num_leaves': 100}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 50}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 31}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 5, 'min_samples_split': 10}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 50}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(max_depth=5)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier()</t>
-  </si>
-  <si>
-    <t>LGBMClassifier(num_leaves=100)</t>
+    <t>{'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 5}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 150, 'num_leaves': 31}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 250}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.2, 'n_estimators': 50, 'num_leaves': 31}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 10, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.15, 'n_estimators': 50, 'num_leaves': 50}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'max_depth': 3, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 250}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 100, 'num_leaves': 50}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 15, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 100, 'num_leaves': 31}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.2, 'max_depth': 3, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_leaf=2, min_samples_split=5)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=20, n_estimators=300)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.05, n_estimators=150)</t>
   </si>
   <si>
     <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
@@ -129,7 +159,95 @@
               colsample_bytree=None, device=None, early_stopping_rounds=None,
               enable_categorical=True, eval_metric=None, feature_types=None,
               gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
+              interaction_constraints=None, learning_rate=0.1, max_bin=None,
+              max_cat_threshold=None, max_cat_to_onehot=None,
+              max_delta_step=None, max_depth=5, max_leaves=None,
+              min_child_weight=None, missing=nan, monotone_constraints=None,
+              multi_strategy=None, n_estimators=250, n_jobs=None,
+              num_parallel_tree=None, random_state=None, ...)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=25, n_estimators=150)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.2, n_estimators=50)</t>
+  </si>
+  <si>
+    <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
+              colsample_bylevel=None, colsample_bynode=None,
+              colsample_bytree=None, device=None, early_stopping_rounds=None,
+              enable_categorical=True, eval_metric=None, feature_types=None,
+              gamma=None, grow_policy=None, importance_type=None,
+              interaction_constraints=None, learning_rate=0.1, max_bin=None,
+              max_cat_threshold=None, max_cat_to_onehot=None,
+              max_delta_step=None, max_depth=3, max_leaves=None,
+              min_child_weight=None, missing=nan, monotone_constraints=None,
+              multi_strategy=None, n_estimators=100, n_jobs=None,
+              num_parallel_tree=None, random_state=None, ...)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_leaf=5, min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=20, min_samples_split=10, n_estimators=150)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.15, n_estimators=50, num_leaves=50)</t>
+  </si>
+  <si>
+    <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
+              colsample_bylevel=None, colsample_bynode=None,
+              colsample_bytree=None, device=None, early_stopping_rounds=None,
+              enable_categorical=True, eval_metric=None, feature_types=None,
+              gamma=None, grow_policy=None, importance_type=None,
+              interaction_constraints=None, learning_rate=0.05, max_bin=None,
+              max_cat_threshold=None, max_cat_to_onehot=None,
+              max_delta_step=None, max_depth=3, max_leaves=None,
+              min_child_weight=None, missing=nan, monotone_constraints=None,
+              multi_strategy=None, n_estimators=150, n_jobs=None,
+              num_parallel_tree=None, random_state=None, ...)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_leaf=2, min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=25, n_estimators=250)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.05, num_leaves=50)</t>
+  </si>
+  <si>
+    <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
+              colsample_bylevel=None, colsample_bynode=None,
+              colsample_bytree=None, device=None, early_stopping_rounds=None,
+              enable_categorical=True, eval_metric=None, feature_types=None,
+              gamma=None, grow_policy=None, importance_type=None,
+              interaction_constraints=None, learning_rate=0.1, max_bin=None,
+              max_cat_threshold=None, max_cat_to_onehot=None,
+              max_delta_step=None, max_depth=3, max_leaves=None,
+              min_child_weight=None, missing=nan, monotone_constraints=None,
+              multi_strategy=None, n_estimators=150, n_jobs=None,
+              num_parallel_tree=None, random_state=None, ...)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=20, min_samples_split=15, n_estimators=300)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.05)</t>
+  </si>
+  <si>
+    <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
+              colsample_bylevel=None, colsample_bynode=None,
+              colsample_bytree=None, device=None, early_stopping_rounds=None,
+              enable_categorical=True, eval_metric=None, feature_types=None,
+              gamma=None, grow_policy=None, importance_type=None,
+              interaction_constraints=None, learning_rate=0.2, max_bin=None,
               max_cat_threshold=None, max_cat_to_onehot=None,
               max_delta_step=None, max_depth=3, max_leaves=None,
               min_child_weight=None, missing=nan, monotone_constraints=None,
@@ -137,83 +255,55 @@
               num_parallel_tree=None, random_state=None, ...)</t>
   </si>
   <si>
-    <t>LGBMClassifier(learning_rate=0.05)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='log2', n_estimators=200)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(max_depth=5, min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>LGBMClassifier(learning_rate=0.05, num_leaves=50)</t>
-  </si>
-  <si>
-    <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
-              colsample_bylevel=None, colsample_bynode=None,
-              colsample_bytree=None, device=None, early_stopping_rounds=None,
-              enable_categorical=True, eval_metric=None, feature_types=None,
-              gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
-              max_cat_threshold=None, max_cat_to_onehot=None,
-              max_delta_step=None, max_depth=3, max_leaves=None,
-              min_child_weight=None, missing=nan, monotone_constraints=None,
-              multi_strategy=None, n_estimators=100, n_jobs=None,
-              num_parallel_tree=None, random_state=None, ...)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(n_estimators=200)</t>
-  </si>
-  <si>
-    <t>[[217  60]
+    <t>[[220  57]
  [ 33 416]]</t>
   </si>
   <si>
-    <t>[[225  52]
- [ 29 420]]</t>
-  </si>
-  <si>
-    <t>[[235  42]
- [ 25 424]]</t>
-  </si>
-  <si>
-    <t>[[231  46]
- [ 27 422]]</t>
+    <t>[[219  58]
+ [ 26 423]]</t>
+  </si>
+  <si>
+    <t>[[236  41]
+ [ 23 426]]</t>
+  </si>
+  <si>
+    <t>[[232  45]
+ [ 30 419]]</t>
   </si>
   <si>
     <t>[[200  77]
  [ 34 415]]</t>
   </si>
   <si>
-    <t>[[213  64]
- [ 26 423]]</t>
+    <t>[[211  66]
+ [ 23 426]]</t>
   </si>
   <si>
     <t>[[227  50]
- [ 28 421]]</t>
-  </si>
-  <si>
-    <t>[[217  60]
- [ 34 415]]</t>
+ [ 33 416]]</t>
+  </si>
+  <si>
+    <t>[[219  58]
+ [ 23 426]]</t>
   </si>
   <si>
     <t>[[204  73]
  [114 335]]</t>
   </si>
   <si>
+    <t>[[181  96]
+ [ 86 363]]</t>
+  </si>
+  <si>
     <t>[[183  94]
- [ 94 355]]</t>
-  </si>
-  <si>
-    <t>[[190  87]
- [ 82 367]]</t>
-  </si>
-  <si>
-    <t>[[192  85]
- [ 76 373]]</t>
-  </si>
-  <si>
-    <t>[[209  68]
+ [ 90 359]]</t>
+  </si>
+  <si>
+    <t>[[186  91]
+ [ 75 374]]</t>
+  </si>
+  <si>
+    <t>[[215  62]
  [ 24 425]]</t>
   </si>
   <si>
@@ -221,24 +311,24 @@
  [ 28 421]]</t>
   </si>
   <si>
-    <t>[[223  54]
- [ 32 417]]</t>
+    <t>[[221  56]
+ [ 28 421]]</t>
   </si>
   <si>
     <t>[[184  93]
  [ 87 362]]</t>
   </si>
   <si>
-    <t>[[186  91]
- [ 85 364]]</t>
+    <t>[[187  90]
+ [ 79 370]]</t>
   </si>
   <si>
     <t>[[190  87]
  [ 79 370]]</t>
   </si>
   <si>
-    <t>[[192  85]
- [ 80 369]]</t>
+    <t>[[191  86]
+ [ 78 371]]</t>
   </si>
 </sst>
 </file>
@@ -657,37 +747,37 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.8708484417585021</v>
+        <v>0.8701611565351346</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>416</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <v>33</v>
       </c>
       <c r="J2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K2">
-        <v>0.8716795610806306</v>
+        <v>0.8757048798997842</v>
       </c>
       <c r="L2">
-        <v>0.871900826446281</v>
+        <v>0.8760330578512396</v>
       </c>
       <c r="M2">
-        <v>0.8704889040717918</v>
+        <v>0.8748397117703904</v>
       </c>
       <c r="N2">
-        <v>1.215276718139648</v>
+        <v>21.08915519714355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -701,37 +791,37 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.8949567484299088</v>
+        <v>0.897023343998104</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K3">
-        <v>0.8883029119188929</v>
+        <v>0.8849348615582383</v>
       </c>
       <c r="L3">
-        <v>0.8884297520661157</v>
+        <v>0.8842975206611571</v>
       </c>
       <c r="M3">
-        <v>0.8874065611065154</v>
+        <v>0.8827416648025406</v>
       </c>
       <c r="N3">
-        <v>27.80262041091919</v>
+        <v>676.3029205799103</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -745,37 +835,37 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.8959947861120987</v>
+        <v>0.8987617016234151</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K4">
-        <v>0.9075724152294578</v>
+        <v>0.9118207220212281</v>
       </c>
       <c r="L4">
-        <v>0.9077134986225895</v>
+        <v>0.9118457300275482</v>
       </c>
       <c r="M4">
-        <v>0.9071100316202683</v>
+        <v>0.9112316723071997</v>
       </c>
       <c r="N4">
-        <v>9.424013137817383</v>
+        <v>197.9825568199158</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -789,37 +879,37 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.8973764664059722</v>
+        <v>0.8970375636923805</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K5">
-        <v>0.8992825747582619</v>
+        <v>0.896332209541876</v>
       </c>
       <c r="L5">
-        <v>0.8994490358126722</v>
+        <v>0.8966942148760331</v>
       </c>
       <c r="M5">
-        <v>0.8987052462325993</v>
+        <v>0.8961053739790885</v>
       </c>
       <c r="N5">
-        <v>9.267918825149536</v>
+        <v>263.7599172592163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -830,16 +920,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.8467626496030336</v>
+        <v>0.8474499348264011</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>415</v>
@@ -863,7 +953,7 @@
         <v>0.8441678751674609</v>
       </c>
       <c r="N6">
-        <v>1.179312467575073</v>
+        <v>17.09272265434265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -874,40 +964,40 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.8674214954378481</v>
+        <v>0.8694869060315205</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K7">
-        <v>0.8772175600858676</v>
+        <v>0.8795341555873707</v>
       </c>
       <c r="L7">
-        <v>0.8760330578512396</v>
+        <v>0.8774104683195593</v>
       </c>
       <c r="M7">
-        <v>0.8739848065958004</v>
+        <v>0.8750535215306668</v>
       </c>
       <c r="N7">
-        <v>26.66541695594788</v>
+        <v>694.8173654079437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -918,40 +1008,40 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.8732717146581347</v>
+        <v>0.8746474700793933</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H8">
         <v>50</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>227</v>
       </c>
       <c r="K8">
-        <v>0.8924514741061625</v>
+        <v>0.8852153471447268</v>
       </c>
       <c r="L8">
-        <v>0.8925619834710744</v>
+        <v>0.8856749311294766</v>
       </c>
       <c r="M8">
-        <v>0.8916251057035329</v>
+        <v>0.8849273526042128</v>
       </c>
       <c r="N8">
-        <v>8.651665210723877</v>
+        <v>237.3406167030334</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -962,40 +1052,40 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.8701765612039342</v>
+        <v>0.8725844294347672</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K9">
-        <v>0.8701960029968571</v>
+        <v>0.8896250256130045</v>
       </c>
       <c r="L9">
-        <v>0.8705234159779615</v>
+        <v>0.8884297520661157</v>
       </c>
       <c r="M9">
-        <v>0.8691571857894171</v>
+        <v>0.8867604390243378</v>
       </c>
       <c r="N9">
-        <v>9.465440988540649</v>
+        <v>290.6994128227234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1006,16 +1096,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.7279843583362957</v>
+        <v>0.7293612987320773</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>335</v>
@@ -1039,7 +1129,7 @@
         <v>0.745137320866609</v>
       </c>
       <c r="N10">
-        <v>1.004882097244263</v>
+        <v>16.74492311477661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1050,40 +1140,40 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.7493162697002015</v>
+        <v>0.7551735987676265</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G11">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I11">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K11">
-        <v>0.7410468319559229</v>
+        <v>0.7477555502550995</v>
       </c>
       <c r="L11">
-        <v>0.7410468319559229</v>
+        <v>0.7493112947658402</v>
       </c>
       <c r="M11">
-        <v>0.7410468319559229</v>
+        <v>0.7483876150489321</v>
       </c>
       <c r="N11">
-        <v>28.00982165336609</v>
+        <v>625.2701163291931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1094,40 +1184,40 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>0.7606754354781371</v>
+        <v>0.7613757554212583</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G12">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H12">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I12">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J12">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K12">
-        <v>0.7664611526701918</v>
+        <v>0.7458833894715893</v>
       </c>
       <c r="L12">
-        <v>0.7672176308539945</v>
+        <v>0.7465564738292011</v>
       </c>
       <c r="M12">
-        <v>0.7668020713111344</v>
+        <v>0.7461968200448346</v>
       </c>
       <c r="N12">
-        <v>8.03980016708374</v>
+        <v>222.5531287193298</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1138,40 +1228,40 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>0.7627586206896552</v>
+        <v>0.7692913852352175</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G13">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H13">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K13">
-        <v>0.7770221306761511</v>
+        <v>0.7693298645265477</v>
       </c>
       <c r="L13">
-        <v>0.778236914600551</v>
+        <v>0.7713498622589532</v>
       </c>
       <c r="M13">
-        <v>0.7775061011190347</v>
+        <v>0.7699511743266545</v>
       </c>
       <c r="N13">
-        <v>9.305044412612915</v>
+        <v>274.0794744491577</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1182,16 +1272,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>0.8471027372911483</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <v>415</v>
@@ -1215,7 +1305,7 @@
         <v>0.8441678751674609</v>
       </c>
       <c r="N14">
-        <v>1.10846996307373</v>
+        <v>17.63518118858337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1226,40 +1316,40 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>0.8687984358336296</v>
+        <v>0.8715535015997155</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <v>425</v>
       </c>
       <c r="H15">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>24</v>
       </c>
       <c r="J15">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K15">
-        <v>0.8753950091956468</v>
+        <v>0.882950251734535</v>
       </c>
       <c r="L15">
-        <v>0.8732782369146006</v>
+        <v>0.8815426997245179</v>
       </c>
       <c r="M15">
-        <v>0.8707713395407118</v>
+        <v>0.8795854818582091</v>
       </c>
       <c r="N15">
-        <v>26.62297320365906</v>
+        <v>626.4200420379639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1270,16 +1360,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>0.8753371252518072</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>421</v>
@@ -1303,7 +1393,7 @@
         <v>0.8887464104625692</v>
       </c>
       <c r="N16">
-        <v>8.675363302230835</v>
+        <v>217.9192698001862</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1314,40 +1404,40 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>0.867767507998578</v>
+        <v>0.8749946676146463</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J17">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17">
-        <v>0.8812141992836158</v>
+        <v>0.8844884536673994</v>
       </c>
       <c r="L17">
-        <v>0.8815426997245179</v>
+        <v>0.8842975206611571</v>
       </c>
       <c r="M17">
-        <v>0.8805097319295364</v>
+        <v>0.8829672685356211</v>
       </c>
       <c r="N17">
-        <v>9.415794134140015</v>
+        <v>265.2381844520569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1358,16 +1448,16 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>0.7551617490223961</v>
+        <v>0.7548169214361892</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G18">
         <v>362</v>
@@ -1391,7 +1481,7 @@
         <v>0.7515316028552195</v>
       </c>
       <c r="N18">
-        <v>0.9183807373046875</v>
+        <v>14.93812298774719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1402,40 +1492,40 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>0.7627408460718094</v>
+        <v>0.7734103566773315</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H19">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J19">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19">
-        <v>0.7566364754556637</v>
+        <v>0.7656821716526314</v>
       </c>
       <c r="L19">
-        <v>0.7575757575757576</v>
+        <v>0.7672176308539945</v>
       </c>
       <c r="M19">
-        <v>0.7570531227917702</v>
+        <v>0.7662682725664163</v>
       </c>
       <c r="N19">
-        <v>29.18571043014526</v>
+        <v>612.4709684848785</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1446,16 +1536,16 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>0.7758336295769641</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G20">
         <v>370</v>
@@ -1479,7 +1569,7 @@
         <v>0.7706842625566286</v>
       </c>
       <c r="N20">
-        <v>8.488213539123535</v>
+        <v>229.6474709510803</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1490,40 +1580,40 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>0.772731366275625</v>
+        <v>0.7844448394359522</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G21">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H21">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J21">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K21">
-        <v>0.7719910951965888</v>
+        <v>0.7729831513185786</v>
       </c>
       <c r="L21">
-        <v>0.7727272727272727</v>
+        <v>0.7741046831955923</v>
       </c>
       <c r="M21">
-        <v>0.7723215489132377</v>
+        <v>0.7734471027667897</v>
       </c>
       <c r="N21">
-        <v>9.389091730117798</v>
+        <v>297.6617162227631</v>
       </c>
     </row>
   </sheetData>
